--- a/biology/Botanique/Achillea_ptarmica/Achillea_ptarmica.xlsx
+++ b/biology/Botanique/Achillea_ptarmica/Achillea_ptarmica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’achillée sternutatoire ou achillée ptarmique (Achillea ptarmica L.) est une espèce de plante vivace appartenant à la famille des Astéracées (ou Composées) et au genre Achillea. Elle est parfois appelée achillée des marais, bouton d'argent, herbe à éternuer ou passe-pierre.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'achillée sternutatoire est une plante vivace assez grande, à tige érigée, à souche ligneuse rampante. Les feuilles, alternes et sessiles, sont étroites et lancéolées, à bords dentés. L'inflorescence est un corymbe de petits capitules blancs semblable à celle d'une petite camomille. Les ligules à trois dents sont des fleurs femelles, tandis que les fleurons du disque, de couleur beige à verdâtre, sont hermaphrodites. Les fruits sont des akènes. La floraison a lieu en été.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : corymbe de capitules
@@ -587,7 +603,9 @@
           <t>Relation symbiotique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette achillée entretient une relation étroite avec Tephritis angustipennis dont les larves se nourrissent exclusivement de ses capitules.
 </t>
@@ -618,7 +636,9 @@
           <t>Distribution géographique et écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez commune dans toute l'Europe occidentale, à l'exception des régions méditerranéennes[réf. souhaitée]. Elle pousse dans les lieux humides, sur sol acide ou neutre[réf. souhaitée].
 </t>
@@ -649,9 +669,11 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est inscrite sur la liste rouge de la flore vasculaire menacée de Provence-Alpes-Côte d’Azur (catégorie VU : vulnérable)[1]. En France, elle est protégée en région Nord-Pas-de-Calais[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est inscrite sur la liste rouge de la flore vasculaire menacée de Provence-Alpes-Côte d’Azur (catégorie VU : vulnérable). En France, elle est protégée en région Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -680,14 +702,16 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les taxons infraspécifiques reconnus par l'INPN[3] sont les suivants :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les taxons infraspécifiques reconnus par l'INPN sont les suivants :
 Achillea ptarmica L. subsp. ptarmica
 Achillea ptarmica var. ptarmica
 Achillea ptarmica var. pubescens DC.
 Achillea ptarmica var. vulgaris Heimerl
-Achillea ptarmica L. subsp. pyrenaica (Sibth. ex Godr.) Heimerl, présente de 1800 à 2600 m d'altitude dans les microphorbiaies hygrophiles oligotrophiles des Pyrénées[4].</t>
+Achillea ptarmica L. subsp. pyrenaica (Sibth. ex Godr.) Heimerl, présente de 1800 à 2600 m d'altitude dans les microphorbiaies hygrophiles oligotrophiles des Pyrénées.</t>
         </is>
       </c>
     </row>
@@ -715,14 +739,16 @@
           <t>Propriétés et usages</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Achillée ptarmique est considérée comme sternutatoire, masticatoire, sialagogue et hémostatique[5].
-On employait autrefois la racine et les feuilles séchées et réduites en poudre pour provoquer l'éternuement contre les migraines et les ophtalmies[5].
-Mâchée, la racine excite les glandes salivaires[5].
-Matthiole considère cette plante comme efficace contre les maux de dents[5].
-Cazin l'indique dans l'engorgement des glandes salivaires, l'amygdalite chronique, les engorgements atoniques de la bouche et la paralysie de la langue[5].
-Georg Dragendorff quant à lui mentionne l'utilisation de la racine contre l'hématurie, les hémorragies utérines, l'épilepsie et les catarrhes[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Achillée ptarmique est considérée comme sternutatoire, masticatoire, sialagogue et hémostatique.
+On employait autrefois la racine et les feuilles séchées et réduites en poudre pour provoquer l'éternuement contre les migraines et les ophtalmies.
+Mâchée, la racine excite les glandes salivaires.
+Matthiole considère cette plante comme efficace contre les maux de dents.
+Cazin l'indique dans l'engorgement des glandes salivaires, l'amygdalite chronique, les engorgements atoniques de la bouche et la paralysie de la langue.
+Georg Dragendorff quant à lui mentionne l'utilisation de la racine contre l'hématurie, les hémorragies utérines, l'épilepsie et les catarrhes.
 La passe-pierre est une plante comestible utilisée dans la cuisine acadienne[réf. souhaitée].
 </t>
         </is>
